--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB277098-CAF9-40F8-8BE9-103839148ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD91C70-CC51-43FB-B36A-00F1718C58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -172,13 +172,28 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Felipe Augusto dos Santos</t>
+  </si>
+  <si>
+    <t>João Vitor Colosso</t>
+  </si>
+  <si>
+    <t>Mirella França de Almeida</t>
+  </si>
+  <si>
+    <t>Bryan Beckhan de Alencar de Souza</t>
+  </si>
+  <si>
+    <t>Richard Matheus Bilesi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +203,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -215,13 +238,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,23 +576,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -597,8 +621,23 @@
       <c r="J1" s="2">
         <v>45135</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2">
+        <v>45138</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45139</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45140</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45141</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -629,14 +668,26 @@
       <c r="J2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
@@ -646,14 +697,29 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
@@ -663,14 +729,29 @@
       <c r="E4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
       <c r="C5" t="s">
         <v>47</v>
       </c>
@@ -680,14 +761,29 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
@@ -697,14 +793,29 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
         <v>47</v>
       </c>
@@ -714,14 +825,29 @@
       <c r="E7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
       <c r="C8" t="s">
         <v>47</v>
       </c>
@@ -731,14 +857,29 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
@@ -748,14 +889,29 @@
       <c r="E9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
@@ -765,14 +921,29 @@
       <c r="E10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
@@ -782,14 +953,29 @@
       <c r="E11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
@@ -799,14 +985,29 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
@@ -816,14 +1017,29 @@
       <c r="E13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
       <c r="C14" t="s">
         <v>47</v>
       </c>
@@ -833,14 +1049,29 @@
       <c r="E14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
       <c r="C15" t="s">
         <v>47</v>
       </c>
@@ -850,14 +1081,29 @@
       <c r="E15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
       <c r="C16" t="s">
         <v>47</v>
       </c>
@@ -867,14 +1113,29 @@
       <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -884,14 +1145,29 @@
       <c r="E17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
@@ -901,14 +1177,29 @@
       <c r="E18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
@@ -918,14 +1209,29 @@
       <c r="E19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
       <c r="C20" t="s">
         <v>47</v>
       </c>
@@ -935,14 +1241,29 @@
       <c r="E20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -952,14 +1273,29 @@
       <c r="E21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -969,14 +1305,29 @@
       <c r="E22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>21</v>
-      </c>
       <c r="C23" t="s">
         <v>47</v>
       </c>
@@ -986,14 +1337,29 @@
       <c r="E23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24">
-        <v>22</v>
-      </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -1003,14 +1369,29 @@
       <c r="E24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
       <c r="C25" t="s">
         <v>47</v>
       </c>
@@ -1020,14 +1401,29 @@
       <c r="E25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
       <c r="C26" t="s">
         <v>47</v>
       </c>
@@ -1037,14 +1433,29 @@
       <c r="E26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
       <c r="C27" t="s">
         <v>47</v>
       </c>
@@ -1054,14 +1465,29 @@
       <c r="E27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
       <c r="C28" t="s">
         <v>47</v>
       </c>
@@ -1071,14 +1497,29 @@
       <c r="E28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
       <c r="C29" t="s">
         <v>47</v>
       </c>
@@ -1088,14 +1529,29 @@
       <c r="E29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1105,14 +1561,29 @@
       <c r="E30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
       <c r="C31" t="s">
         <v>47</v>
       </c>
@@ -1122,14 +1593,29 @@
       <c r="E31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>30</v>
-      </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
@@ -1139,14 +1625,29 @@
       <c r="E32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>31</v>
-      </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -1156,14 +1657,29 @@
       <c r="E33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
-        <v>32</v>
-      </c>
       <c r="C34" t="s">
         <v>47</v>
       </c>
@@ -1173,14 +1689,29 @@
       <c r="E34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>33</v>
-      </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -1190,14 +1721,29 @@
       <c r="E35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>34</v>
-      </c>
       <c r="C36" t="s">
         <v>47</v>
       </c>
@@ -1207,14 +1753,29 @@
       <c r="E36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>35</v>
-      </c>
       <c r="C37" t="s">
         <v>47</v>
       </c>
@@ -1224,14 +1785,29 @@
       <c r="E37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>36</v>
-      </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
@@ -1241,14 +1817,29 @@
       <c r="E38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39">
-        <v>37</v>
-      </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -1258,14 +1849,29 @@
       <c r="E39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>38</v>
-      </c>
       <c r="C40" t="s">
         <v>47</v>
       </c>
@@ -1275,14 +1881,29 @@
       <c r="E40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>39</v>
-      </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -1292,14 +1913,29 @@
       <c r="E41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>40</v>
-      </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -1308,6 +1944,184 @@
       </c>
       <c r="E42" t="s">
         <v>48</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" t="s">
+        <v>47</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD91C70-CC51-43FB-B36A-00F1718C58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785017F-5E67-40ED-AEC7-D7DA9A731FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -242,10 +242,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,21 +582,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -1389,7 +1390,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
@@ -1933,7 +1934,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B785017F-5E67-40ED-AEC7-D7DA9A731FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF07966-2F95-4503-B820-E53461104256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -579,21 +579,21 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -717,7 +717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -748,8 +748,11 @@
       <c r="K4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -781,7 +784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -812,8 +815,11 @@
       <c r="K6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -844,8 +850,11 @@
       <c r="K7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="K8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -908,8 +920,11 @@
       <c r="K9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -940,8 +955,11 @@
       <c r="K10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -973,7 +991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1132,8 +1150,11 @@
       <c r="K16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1164,8 +1185,11 @@
       <c r="K17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1196,8 +1220,11 @@
       <c r="K18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1228,8 +1255,11 @@
       <c r="K19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1261,7 +1291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1293,7 +1323,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="K22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1356,8 +1389,11 @@
       <c r="K23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1452,8 +1488,11 @@
       <c r="K26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1516,8 +1555,11 @@
       <c r="K28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1548,8 +1590,11 @@
       <c r="K29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1613,7 +1658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1690,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1677,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1805,7 +1850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1837,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1869,7 +1914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1900,8 +1945,11 @@
       <c r="K40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1965,7 +2013,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1997,7 +2045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2077,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2060,8 +2108,11 @@
       <c r="K45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2093,7 +2144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2126,7 +2177,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+  <sortState ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF07966-2F95-4503-B820-E53461104256}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0452B0DD-D5F1-44C6-9234-44CB2898AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -579,21 +579,21 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -638,7 +638,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -716,8 +716,11 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -752,7 +755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -783,8 +786,11 @@
       <c r="K5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -819,7 +825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -854,7 +860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -889,7 +895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -924,7 +930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -959,7 +965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -990,8 +996,11 @@
       <c r="K11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="K12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1054,8 +1066,11 @@
       <c r="K13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1101,11 @@
       <c r="K14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1136,11 @@
       <c r="K15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +1210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1290,8 +1311,11 @@
       <c r="K20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1322,8 +1346,11 @@
       <c r="K21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1424,8 +1451,11 @@
       <c r="K24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1456,8 +1486,11 @@
       <c r="K25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1492,7 +1525,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1523,8 +1556,11 @@
       <c r="K27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1630,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1625,8 +1661,11 @@
       <c r="K30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1657,8 +1696,11 @@
       <c r="K31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1689,8 +1731,11 @@
       <c r="K32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1721,8 +1766,11 @@
       <c r="K33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="K34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1785,8 +1836,11 @@
       <c r="K35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1817,8 +1871,11 @@
       <c r="K36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1849,8 +1906,11 @@
       <c r="K37" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1881,8 +1941,11 @@
       <c r="K38" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1913,8 +1976,11 @@
       <c r="K39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1949,7 +2015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1980,8 +2046,11 @@
       <c r="K41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2012,8 +2081,11 @@
       <c r="K42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2044,8 +2116,11 @@
       <c r="K43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2076,8 +2151,11 @@
       <c r="K44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2112,7 +2190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2143,8 +2221,11 @@
       <c r="K46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2175,9 +2256,12 @@
       <c r="K47" t="s">
         <v>47</v>
       </c>
+      <c r="L47" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0452B0DD-D5F1-44C6-9234-44CB2898AA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084C7F4-591D-48E0-8AC6-1E0F255CDABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,7 +582,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L47" sqref="L47"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,6 +719,9 @@
       <c r="L3" t="s">
         <v>47</v>
       </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -999,6 +1002,9 @@
       <c r="L11" t="s">
         <v>47</v>
       </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1034,6 +1040,9 @@
       <c r="L12" t="s">
         <v>47</v>
       </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1069,6 +1078,9 @@
       <c r="L13" t="s">
         <v>47</v>
       </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1104,6 +1116,9 @@
       <c r="L14" t="s">
         <v>47</v>
       </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1139,6 +1154,9 @@
       <c r="L15" t="s">
         <v>47</v>
       </c>
+      <c r="M15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1175,7 +1193,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1245,7 +1263,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1315,7 +1333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1455,7 +1473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1543,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1595,7 +1613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1630,7 +1648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1699,8 +1717,11 @@
       <c r="L31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1734,8 +1755,11 @@
       <c r="L32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1769,8 +1793,11 @@
       <c r="L33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1804,8 +1831,11 @@
       <c r="L34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1839,8 +1869,11 @@
       <c r="L35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1874,8 +1907,11 @@
       <c r="L36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1910,7 +1946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1945,7 +1981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +2016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2015,7 +2051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2049,8 +2085,11 @@
       <c r="L41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2119,8 +2158,11 @@
       <c r="L43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2154,8 +2196,11 @@
       <c r="L44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2190,7 +2235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2225,7 +2270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2261,7 +2306,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+  <sortState ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8084C7F4-591D-48E0-8AC6-1E0F255CDABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7583D5-410C-4233-A2AD-6898AD8DCEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Richard Matheus Bilesi</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +760,9 @@
       <c r="L4" t="s">
         <v>47</v>
       </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -792,6 +798,9 @@
       <c r="L5" t="s">
         <v>48</v>
       </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -827,6 +836,9 @@
       <c r="L6" t="s">
         <v>47</v>
       </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -862,6 +874,9 @@
       <c r="L7" t="s">
         <v>47</v>
       </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -897,6 +912,9 @@
       <c r="L8" t="s">
         <v>47</v>
       </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -932,6 +950,9 @@
       <c r="L9" t="s">
         <v>47</v>
       </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -967,6 +988,9 @@
       <c r="L10" t="s">
         <v>47</v>
       </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1192,6 +1216,9 @@
       <c r="L16" t="s">
         <v>47</v>
       </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1227,6 +1254,9 @@
       <c r="L17" t="s">
         <v>47</v>
       </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1262,6 +1292,9 @@
       <c r="L18" t="s">
         <v>47</v>
       </c>
+      <c r="M18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1297,6 +1330,9 @@
       <c r="L19" t="s">
         <v>47</v>
       </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1332,6 +1368,9 @@
       <c r="L20" t="s">
         <v>48</v>
       </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1367,6 +1406,9 @@
       <c r="L21" t="s">
         <v>48</v>
       </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1402,6 +1444,9 @@
       <c r="L22" t="s">
         <v>47</v>
       </c>
+      <c r="M22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1437,6 +1482,9 @@
       <c r="L23" t="s">
         <v>47</v>
       </c>
+      <c r="M23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1472,6 +1520,9 @@
       <c r="L24" t="s">
         <v>48</v>
       </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1507,6 +1558,9 @@
       <c r="L25" t="s">
         <v>48</v>
       </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1542,6 +1596,9 @@
       <c r="L26" t="s">
         <v>47</v>
       </c>
+      <c r="M26" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1577,6 +1634,9 @@
       <c r="L27" t="s">
         <v>48</v>
       </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1612,6 +1672,9 @@
       <c r="L28" t="s">
         <v>47</v>
       </c>
+      <c r="M28" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1647,6 +1710,9 @@
       <c r="L29" t="s">
         <v>47</v>
       </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1682,6 +1748,9 @@
       <c r="L30" t="s">
         <v>48</v>
       </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1945,6 +2014,9 @@
       <c r="L37" t="s">
         <v>48</v>
       </c>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1980,6 +2052,9 @@
       <c r="L38" t="s">
         <v>48</v>
       </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2015,6 +2090,9 @@
       <c r="L39" t="s">
         <v>47</v>
       </c>
+      <c r="M39" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2050,6 +2128,9 @@
       <c r="L40" t="s">
         <v>47</v>
       </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2123,6 +2204,9 @@
       <c r="L42" t="s">
         <v>48</v>
       </c>
+      <c r="M42" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2234,6 +2318,9 @@
       <c r="L45" t="s">
         <v>47</v>
       </c>
+      <c r="M45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2269,6 +2356,9 @@
       <c r="L46" t="s">
         <v>47</v>
       </c>
+      <c r="M46" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2304,9 +2394,12 @@
       <c r="L47" t="s">
         <v>47</v>
       </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7583D5-410C-4233-A2AD-6898AD8DCEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0984978-5F1F-4F0B-BD1B-04DA25132F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +583,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +764,9 @@
       <c r="M4" t="s">
         <v>47</v>
       </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -839,6 +843,9 @@
       <c r="M6" t="s">
         <v>47</v>
       </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -877,6 +884,9 @@
       <c r="M7" t="s">
         <v>47</v>
       </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -915,6 +925,9 @@
       <c r="M8" t="s">
         <v>47</v>
       </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -953,6 +966,9 @@
       <c r="M9" t="s">
         <v>47</v>
       </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -991,6 +1007,9 @@
       <c r="M10" t="s">
         <v>47</v>
       </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1219,8 +1238,11 @@
       <c r="M16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1257,8 +1279,11 @@
       <c r="M17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1295,8 +1320,11 @@
       <c r="M18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1333,8 +1361,11 @@
       <c r="M19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1372,7 +1403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1441,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1447,8 +1478,11 @@
       <c r="M22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1485,8 +1519,11 @@
       <c r="M23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1524,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1599,8 +1636,11 @@
       <c r="M26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1675,8 +1715,11 @@
       <c r="M28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1713,8 +1756,11 @@
       <c r="M29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1798,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1790,7 +1836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1942,7 +1988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +2026,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2018,7 +2064,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2094,7 +2140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2131,8 +2177,11 @@
       <c r="M40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +2219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2208,7 +2257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2246,7 +2295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2284,7 +2333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2321,8 +2370,11 @@
       <c r="M45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2360,7 +2412,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2399,7 +2451,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+  <sortState ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7583D5-410C-4233-A2AD-6898AD8DCEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B15262-2EAB-48E0-AB99-B4DA3B047F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,10 +582,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,6 +725,9 @@
       <c r="M3" t="s">
         <v>47</v>
       </c>
+      <c r="N3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1029,6 +1032,9 @@
       <c r="M11" t="s">
         <v>47</v>
       </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1067,6 +1073,9 @@
       <c r="M12" t="s">
         <v>47</v>
       </c>
+      <c r="N12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1105,6 +1114,9 @@
       <c r="M13" t="s">
         <v>47</v>
       </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1181,6 +1193,9 @@
       <c r="M15" t="s">
         <v>47</v>
       </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1220,7 +1235,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1371,8 +1386,11 @@
       <c r="M20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1428,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1714,7 +1732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1789,8 +1807,11 @@
       <c r="M31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1827,8 +1848,11 @@
       <c r="M32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1865,8 +1889,11 @@
       <c r="M33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1941,8 +1968,11 @@
       <c r="M35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1979,8 +2009,11 @@
       <c r="M36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2018,7 +2051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2056,7 +2089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2094,7 +2127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2169,8 +2202,11 @@
       <c r="M41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2208,7 +2244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2246,7 +2282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2283,8 +2319,11 @@
       <c r="M44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2322,7 +2361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2359,8 +2398,11 @@
       <c r="M46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2396,6 +2438,9 @@
       </c>
       <c r="M47" t="s">
         <v>48</v>
+      </c>
+      <c r="N47" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B15262-2EAB-48E0-AB99-B4DA3B047F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A06EF7-3536-4135-B57D-F38E5EB7DFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,10 +582,10 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N48" sqref="N48"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +766,9 @@
       <c r="M4" t="s">
         <v>47</v>
       </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -842,6 +845,9 @@
       <c r="M6" t="s">
         <v>47</v>
       </c>
+      <c r="N6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -880,6 +886,9 @@
       <c r="M7" t="s">
         <v>47</v>
       </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -918,6 +927,9 @@
       <c r="M8" t="s">
         <v>47</v>
       </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -956,6 +968,9 @@
       <c r="M9" t="s">
         <v>47</v>
       </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -994,6 +1009,9 @@
       <c r="M10" t="s">
         <v>47</v>
       </c>
+      <c r="N10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1035,6 +1053,9 @@
       <c r="N11" t="s">
         <v>47</v>
       </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1155,6 +1176,9 @@
       <c r="M14" t="s">
         <v>47</v>
       </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1196,6 +1220,9 @@
       <c r="N15" t="s">
         <v>47</v>
       </c>
+      <c r="O15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1234,8 +1261,11 @@
       <c r="M16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1272,8 +1302,11 @@
       <c r="M17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1310,8 +1343,11 @@
       <c r="M18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1348,8 +1384,11 @@
       <c r="M19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1428,11 @@
       <c r="N20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1465,8 +1507,11 @@
       <c r="M22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1503,8 +1548,11 @@
       <c r="M23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1542,7 +1590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1617,8 +1665,11 @@
       <c r="M26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1693,8 +1744,11 @@
       <c r="M28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1732,7 +1786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1770,7 +1824,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1810,8 +1864,11 @@
       <c r="N31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1851,8 +1908,11 @@
       <c r="N32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1892,8 +1952,11 @@
       <c r="N33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1930,8 +1993,14 @@
       <c r="M34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1971,8 +2040,11 @@
       <c r="N35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2089,7 +2161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2127,7 +2199,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2164,8 +2236,11 @@
       <c r="M40" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2205,8 +2280,11 @@
       <c r="N41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2244,7 +2322,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2281,8 +2359,11 @@
       <c r="M43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2322,8 +2403,11 @@
       <c r="N44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2360,8 +2444,11 @@
       <c r="M45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2401,8 +2488,11 @@
       <c r="N46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2442,9 +2532,12 @@
       <c r="N47" t="s">
         <v>47</v>
       </c>
+      <c r="O47" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+  <sortState ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A06EF7-3536-4135-B57D-F38E5EB7DFF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34296502-5F90-4A7A-B99C-6E387971C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -48,21 +48,6 @@
     <t>SOP</t>
   </si>
   <si>
-    <t>Carlos Henrique de Oliveira Siqueira 5 5</t>
-  </si>
-  <si>
-    <t>Carlos Henrique Jesus de Almeida Filho 6 6</t>
-  </si>
-  <si>
-    <t>Eretz Israel Colares Caldas Maciel 7 7</t>
-  </si>
-  <si>
-    <t>João Vitor Castro Viana Marques 8 8</t>
-  </si>
-  <si>
-    <t>Erick da Silva de Jesus 9 9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alef Santos da Costa </t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t xml:space="preserve">Tomás Paiva Giangiulio </t>
   </si>
   <si>
-    <t xml:space="preserve">Cicero Ruan Soares Baborsa </t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -190,6 +172,24 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Carlos Henrique de Oliveira Siqueira</t>
+  </si>
+  <si>
+    <t>Carlos Henrique Jesus de Almeida Filho</t>
+  </si>
+  <si>
+    <t>Cicero Ruan Soares Baborsa</t>
+  </si>
+  <si>
+    <t>Eretz Israel Colares Caldas Maciel</t>
+  </si>
+  <si>
+    <t>Erick da Silva de Jesus</t>
+  </si>
+  <si>
+    <t>João Vitor Castro Viana Marques</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -585,7 +615,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,1860 +720,2008 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" t="s">
-        <v>54</v>
-      </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M25" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N36" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M37" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M38" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N38" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L39" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M39" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M40" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N40" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L42" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M42" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="N42" t="s">
+        <v>42</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N43" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N45" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="O45" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD5 A11:XFD15 A6:N10 P6:XFD10 A18:XFD1048576 A16:N17 P16:XFD17">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O10">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34296502-5F90-4A7A-B99C-6E387971C5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA1812-C5BE-4AEF-96B1-A8914C1E1A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -609,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,7 @@
     <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -670,8 +670,23 @@
       <c r="O1" s="2">
         <v>45142</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2">
+        <v>45145</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45146</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45147</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45148</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -762,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -805,8 +820,11 @@
       <c r="O4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -850,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -893,8 +911,11 @@
       <c r="O6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -937,8 +958,11 @@
       <c r="O7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -981,8 +1005,11 @@
       <c r="O8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1052,11 @@
       <c r="O9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1069,8 +1099,11 @@
       <c r="O10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1114,7 +1147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1158,7 +1191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1246,7 +1279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="O16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1377,8 +1413,11 @@
       <c r="O17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1421,8 +1460,11 @@
       <c r="O18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1465,8 +1507,11 @@
       <c r="O19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1554,7 +1599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1597,8 +1642,11 @@
       <c r="O22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1641,8 +1689,11 @@
       <c r="O23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1686,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1773,8 +1824,11 @@
       <c r="O26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1861,8 +1915,11 @@
       <c r="O28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1905,8 +1962,11 @@
       <c r="O29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1950,7 +2010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2038,7 +2098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2126,7 +2186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2170,7 +2230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2258,7 +2318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +2362,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2346,7 +2406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2389,8 +2449,11 @@
       <c r="O40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -2434,7 +2497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -2478,7 +2541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2522,7 +2585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2566,7 +2629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2609,8 +2672,11 @@
       <c r="O45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2720,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2699,13 +2765,13 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+  <sortState ref="A3:J42">
     <sortCondition ref="A2:A42"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD5 A11:XFD15 A6:N10 P6:XFD10 A18:XFD1048576 A16:N17 P16:XFD17">
+  <conditionalFormatting sqref="A11:XFD15 A6:N10 P6:XFD10 A18:XFD1048576 A16:N17 P16:XFD17 A1:XFD5">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCA1812-C5BE-4AEF-96B1-A8914C1E1A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434EBBA-FDBA-4D1C-AD91-FD0AD787E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -615,7 +615,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,6 +732,21 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -964,16 +979,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -997,21 +1012,18 @@
         <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
@@ -1058,7 +1070,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -1105,7 +1117,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
@@ -1144,12 +1156,15 @@
         <v>41</v>
       </c>
       <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
@@ -1161,7 +1176,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -1188,12 +1203,12 @@
         <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1205,7 +1220,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -1237,7 +1252,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
@@ -1281,7 +1296,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1293,7 +1308,7 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -1320,12 +1335,12 @@
         <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1337,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1364,24 +1379,21 @@
         <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
@@ -1411,15 +1423,12 @@
         <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
-      </c>
-      <c r="P17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -1431,7 +1440,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
@@ -1458,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
         <v>41</v>
@@ -1466,7 +1475,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -1478,7 +1487,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -1505,7 +1514,7 @@
         <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
         <v>41</v>
@@ -1513,7 +1522,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -1525,7 +1534,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -1540,68 +1549,74 @@
         <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N20" t="s">
         <v>41</v>
       </c>
       <c r="O20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -1613,7 +1628,7 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -1628,127 +1643,124 @@
         <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
+      <c r="A25" t="s">
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
         <v>41</v>
@@ -1766,36 +1778,39 @@
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
         <v>41</v>
@@ -1822,24 +1837,21 @@
         <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>41</v>
-      </c>
-      <c r="P26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -1873,17 +1885,17 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
+      <c r="A28" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
@@ -1901,27 +1913,24 @@
         <v>41</v>
       </c>
       <c r="K28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
@@ -1933,7 +1942,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
@@ -1954,10 +1963,10 @@
         <v>41</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O29" t="s">
         <v>41</v>
@@ -1968,7 +1977,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -1980,7 +1989,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
         <v>42</v>
@@ -2012,7 +2021,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -2024,7 +2033,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>41</v>
@@ -2051,12 +2060,15 @@
         <v>41</v>
       </c>
       <c r="O31" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -2089,18 +2101,21 @@
         <v>41</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -2115,36 +2130,36 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -2153,10 +2168,10 @@
         <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
         <v>41</v>
@@ -2171,7 +2186,7 @@
         <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L34" t="s">
         <v>41</v>
@@ -2188,19 +2203,19 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -2227,12 +2242,15 @@
         <v>41</v>
       </c>
       <c r="O35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
@@ -2271,12 +2289,12 @@
         <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -2285,86 +2303,86 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
         <v>42</v>
       </c>
       <c r="L38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -2376,7 +2394,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
@@ -2397,10 +2415,10 @@
         <v>41</v>
       </c>
       <c r="M39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O39" t="s">
         <v>41</v>
@@ -2408,7 +2426,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -2447,15 +2465,12 @@
         <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
-      </c>
-      <c r="P40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -2464,42 +2479,42 @@
         <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
       </c>
       <c r="K41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
+      <c r="A42" t="s">
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -2511,39 +2526,39 @@
         <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M42" t="s">
         <v>42</v>
       </c>
       <c r="N42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
@@ -2555,31 +2570,31 @@
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O43" t="s">
         <v>42</v>
@@ -2587,16 +2602,16 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
         <v>41</v>
@@ -2620,10 +2635,10 @@
         <v>41</v>
       </c>
       <c r="M44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O44" t="s">
         <v>41</v>
@@ -2631,16 +2646,16 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
         <v>41</v>
@@ -2678,16 +2693,16 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
         <v>41</v>
@@ -2702,7 +2717,7 @@
         <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46" t="s">
         <v>41</v>
@@ -2711,7 +2726,7 @@
         <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N46" t="s">
         <v>41</v>
@@ -2721,8 +2736,8 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>47</v>
+      <c r="A47" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -2734,39 +2749,39 @@
         <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M47" t="s">
         <v>42</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:J42">
-    <sortCondition ref="A2:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
+    <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434EBBA-FDBA-4D1C-AD91-FD0AD787E832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D3B3E-3572-4D55-86D5-3944B6C5D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,37 +253,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -615,7 +585,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +593,7 @@
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -791,6 +761,12 @@
       <c r="O3" t="s">
         <v>42</v>
       </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -838,6 +814,9 @@
       <c r="P4" t="s">
         <v>41</v>
       </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -882,6 +861,12 @@
       <c r="O5" t="s">
         <v>42</v>
       </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -929,6 +914,9 @@
       <c r="P6" t="s">
         <v>41</v>
       </c>
+      <c r="Q6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -976,6 +964,9 @@
       <c r="P7" t="s">
         <v>41</v>
       </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1020,6 +1011,12 @@
       <c r="O8" t="s">
         <v>41</v>
       </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1067,6 +1064,9 @@
       <c r="P9" t="s">
         <v>41</v>
       </c>
+      <c r="Q9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1114,6 +1114,9 @@
       <c r="P10" t="s">
         <v>41</v>
       </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1161,6 +1164,9 @@
       <c r="P11" t="s">
         <v>41</v>
       </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1205,6 +1211,12 @@
       <c r="O12" t="s">
         <v>41</v>
       </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1249,6 +1261,12 @@
       <c r="O13" t="s">
         <v>42</v>
       </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1293,6 +1311,12 @@
       <c r="O14" t="s">
         <v>42</v>
       </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1337,6 +1361,12 @@
       <c r="O15" t="s">
         <v>42</v>
       </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1381,8 +1411,14 @@
       <c r="O16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1425,8 +1461,14 @@
       <c r="O17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1472,8 +1514,11 @@
       <c r="P18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1519,8 +1564,11 @@
       <c r="P19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1566,8 +1614,11 @@
       <c r="P20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1613,8 +1664,11 @@
       <c r="P21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1657,8 +1711,14 @@
       <c r="O22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1701,8 +1761,14 @@
       <c r="O23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1748,8 +1814,11 @@
       <c r="P24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1795,8 +1864,11 @@
       <c r="P25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1839,8 +1911,14 @@
       <c r="O26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +1961,14 @@
       <c r="O27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -1927,8 +2011,14 @@
       <c r="O28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1974,8 +2064,11 @@
       <c r="P29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2018,8 +2111,14 @@
       <c r="O30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2065,8 +2164,11 @@
       <c r="P31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2112,8 +2214,11 @@
       <c r="P32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2156,8 +2261,14 @@
       <c r="O33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2200,8 +2311,14 @@
       <c r="O34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2247,8 +2364,11 @@
       <c r="P35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2411,14 @@
       <c r="O36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2335,8 +2461,14 @@
       <c r="O37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2379,8 +2511,14 @@
       <c r="O38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2423,8 +2561,14 @@
       <c r="O39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2467,8 +2611,14 @@
       <c r="O40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2511,8 +2661,14 @@
       <c r="O41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2555,8 +2711,14 @@
       <c r="O42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2599,8 +2761,14 @@
       <c r="O43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2643,8 +2811,14 @@
       <c r="O44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2690,8 +2864,11 @@
       <c r="P45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2734,8 +2911,14 @@
       <c r="O46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -2776,6 +2959,12 @@
         <v>42</v>
       </c>
       <c r="O47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2786,23 +2975,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11:XFD15 A6:N10 P6:XFD10 A18:XFD1048576 A16:N17 P16:XFD17 A1:XFD5">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O17">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766D3B3E-3572-4D55-86D5-3944B6C5D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920C872-6DDA-4A67-882B-6439FA2107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -585,7 +585,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,6 +767,9 @@
       <c r="Q3" t="s">
         <v>41</v>
       </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1267,6 +1270,9 @@
       <c r="Q13" t="s">
         <v>41</v>
       </c>
+      <c r="R13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1367,6 +1373,9 @@
       <c r="Q15" t="s">
         <v>41</v>
       </c>
+      <c r="R15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1417,8 +1426,11 @@
       <c r="Q16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1530,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1568,7 +1580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1717,8 +1729,11 @@
       <c r="Q22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1768,7 +1783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1917,8 +1932,11 @@
       <c r="Q26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2136,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2218,7 +2236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2268,7 +2286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2317,8 +2335,11 @@
       <c r="Q34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2368,7 +2389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2417,8 +2438,11 @@
       <c r="Q36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2467,8 +2491,11 @@
       <c r="Q37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2518,7 +2545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2567,8 +2594,11 @@
       <c r="Q39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2617,8 +2647,11 @@
       <c r="Q40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2668,7 +2701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2717,8 +2750,11 @@
       <c r="Q42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2768,7 +2804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2818,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2917,8 +2953,11 @@
       <c r="Q46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920C872-6DDA-4A67-882B-6439FA2107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA7C2AC-2ED9-4E33-A996-83055C2389EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -585,7 +585,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +820,9 @@
       <c r="Q4" t="s">
         <v>41</v>
       </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -870,6 +873,9 @@
       <c r="Q5" t="s">
         <v>42</v>
       </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -920,6 +926,9 @@
       <c r="Q6" t="s">
         <v>41</v>
       </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -970,6 +979,9 @@
       <c r="Q7" t="s">
         <v>41</v>
       </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1020,6 +1032,9 @@
       <c r="Q8" t="s">
         <v>42</v>
       </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1070,6 +1085,9 @@
       <c r="Q9" t="s">
         <v>41</v>
       </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1120,6 +1138,9 @@
       <c r="Q10" t="s">
         <v>41</v>
       </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1170,6 +1191,9 @@
       <c r="Q11" t="s">
         <v>41</v>
       </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1220,6 +1244,9 @@
       <c r="Q12" t="s">
         <v>41</v>
       </c>
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1323,6 +1350,9 @@
       <c r="Q14" t="s">
         <v>41</v>
       </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1479,6 +1509,9 @@
       <c r="Q17" t="s">
         <v>42</v>
       </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1529,6 +1562,9 @@
       <c r="Q18" t="s">
         <v>41</v>
       </c>
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1579,6 +1615,9 @@
       <c r="Q19" t="s">
         <v>41</v>
       </c>
+      <c r="R19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1629,6 +1668,9 @@
       <c r="Q20" t="s">
         <v>41</v>
       </c>
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1677,7 +1719,10 @@
         <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1782,6 +1827,9 @@
       <c r="Q23" t="s">
         <v>42</v>
       </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1832,6 +1880,9 @@
       <c r="Q24" t="s">
         <v>41</v>
       </c>
+      <c r="R24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1882,6 +1933,9 @@
       <c r="Q25" t="s">
         <v>41</v>
       </c>
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1985,6 +2039,9 @@
       <c r="Q27" t="s">
         <v>42</v>
       </c>
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2035,6 +2092,9 @@
       <c r="Q28" t="s">
         <v>42</v>
       </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2085,6 +2145,9 @@
       <c r="Q29" t="s">
         <v>41</v>
       </c>
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2135,6 +2198,9 @@
       <c r="Q30" t="s">
         <v>42</v>
       </c>
+      <c r="R30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2185,6 +2251,9 @@
       <c r="Q31" t="s">
         <v>41</v>
       </c>
+      <c r="R31" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2235,6 +2304,9 @@
       <c r="Q32" t="s">
         <v>41</v>
       </c>
+      <c r="R32" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2285,6 +2357,9 @@
       <c r="Q33" t="s">
         <v>42</v>
       </c>
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2388,6 +2463,9 @@
       <c r="Q35" t="s">
         <v>41</v>
       </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2544,6 +2622,9 @@
       <c r="Q38" t="s">
         <v>42</v>
       </c>
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2700,6 +2781,9 @@
       <c r="Q41" t="s">
         <v>42</v>
       </c>
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2803,6 +2887,9 @@
       <c r="Q43" t="s">
         <v>42</v>
       </c>
+      <c r="R43" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2853,6 +2940,9 @@
       <c r="Q44" t="s">
         <v>42</v>
       </c>
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2903,6 +2993,9 @@
       <c r="Q45" t="s">
         <v>41</v>
       </c>
+      <c r="R45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3006,9 +3099,12 @@
       <c r="Q47" t="s">
         <v>42</v>
       </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
+  <sortState ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920C872-6DDA-4A67-882B-6439FA2107FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7F46FC-B751-41A3-9EE0-25A2B3013F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,10 +582,10 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,6 +1218,9 @@
         <v>41</v>
       </c>
       <c r="Q12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" t="s">
         <v>41</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454E882-C4DC-439B-9469-F88184FFF54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE6748D-99AE-426B-BDE4-C53F9681D019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -241,11 +241,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,10 +583,10 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +598,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -770,6 +771,9 @@
       <c r="R3" t="s">
         <v>41</v>
       </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -820,6 +824,9 @@
       <c r="Q4" t="s">
         <v>41</v>
       </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -870,6 +877,9 @@
       <c r="Q5" t="s">
         <v>42</v>
       </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -920,6 +930,9 @@
       <c r="Q6" t="s">
         <v>41</v>
       </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -970,6 +983,9 @@
       <c r="Q7" t="s">
         <v>41</v>
       </c>
+      <c r="R7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1020,6 +1036,12 @@
       <c r="Q8" t="s">
         <v>42</v>
       </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1070,6 +1092,9 @@
       <c r="Q9" t="s">
         <v>41</v>
       </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1120,6 +1145,9 @@
       <c r="Q10" t="s">
         <v>41</v>
       </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1170,6 +1198,9 @@
       <c r="Q11" t="s">
         <v>41</v>
       </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1223,6 +1254,9 @@
       <c r="R12" t="s">
         <v>41</v>
       </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1276,6 +1310,9 @@
       <c r="R13" t="s">
         <v>41</v>
       </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1326,6 +1363,12 @@
       <c r="Q14" t="s">
         <v>41</v>
       </c>
+      <c r="R14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1379,6 +1422,9 @@
       <c r="R15" t="s">
         <v>41</v>
       </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1432,8 +1478,11 @@
       <c r="R16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1482,8 +1531,11 @@
       <c r="Q17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1584,11 @@
       <c r="Q18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1582,8 +1637,11 @@
       <c r="Q19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1680,10 +1741,13 @@
         <v>41</v>
       </c>
       <c r="Q21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="R21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1735,8 +1799,11 @@
       <c r="R22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1785,8 +1852,11 @@
       <c r="Q23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1835,8 +1905,11 @@
       <c r="Q24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1885,8 +1958,11 @@
       <c r="Q25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1938,8 +2014,11 @@
       <c r="R26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1988,8 +2067,11 @@
       <c r="Q27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2038,8 +2120,11 @@
       <c r="Q28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2088,8 +2173,11 @@
       <c r="Q29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2138,8 +2226,11 @@
       <c r="Q30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2188,8 +2279,11 @@
       <c r="Q31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2238,8 +2332,11 @@
       <c r="Q32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2288,8 +2385,11 @@
       <c r="Q33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2341,8 +2441,11 @@
       <c r="R34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2392,7 +2495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2444,8 +2547,11 @@
       <c r="R36" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2497,8 +2603,11 @@
       <c r="R37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2547,8 +2656,11 @@
       <c r="Q38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2600,8 +2712,11 @@
       <c r="R39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2653,8 +2768,11 @@
       <c r="R40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2703,8 +2821,11 @@
       <c r="Q41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2756,8 +2877,11 @@
       <c r="R42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2930,11 @@
       <c r="Q43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2856,8 +2983,11 @@
       <c r="Q44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -2906,8 +3036,11 @@
       <c r="Q45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2959,8 +3092,11 @@
       <c r="R46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -3009,9 +3145,15 @@
       <c r="Q47" t="s">
         <v>42</v>
       </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
+  <sortState ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE6748D-99AE-426B-BDE4-C53F9681D019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9550A926-63B6-4498-BABE-D6CF9CE0D98E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -583,10 +583,10 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +880,9 @@
       <c r="R5" t="s">
         <v>42</v>
       </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1855,6 +1858,9 @@
       <c r="R23" t="s">
         <v>42</v>
       </c>
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2070,6 +2076,9 @@
       <c r="R27" t="s">
         <v>42</v>
       </c>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2229,6 +2238,9 @@
       <c r="R30" t="s">
         <v>42</v>
       </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2388,6 +2400,9 @@
       <c r="R33" t="s">
         <v>42</v>
       </c>
+      <c r="S33" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2931,6 +2946,9 @@
         <v>42</v>
       </c>
       <c r="R43" t="s">
+        <v>42</v>
+      </c>
+      <c r="S43" t="s">
         <v>42</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE6748D-99AE-426B-BDE4-C53F9681D019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6C1F7-1760-43D4-810A-230E98797EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -241,12 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,26 +581,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2">
         <v>45126</v>
       </c>
@@ -827,6 +826,9 @@
       <c r="R4" t="s">
         <v>41</v>
       </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -880,6 +882,9 @@
       <c r="R5" t="s">
         <v>42</v>
       </c>
+      <c r="S5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -933,6 +938,9 @@
       <c r="R6" t="s">
         <v>41</v>
       </c>
+      <c r="S6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -983,7 +991,10 @@
       <c r="Q7" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1095,6 +1106,9 @@
       <c r="R9" t="s">
         <v>41</v>
       </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1148,6 +1162,9 @@
       <c r="R10" t="s">
         <v>41</v>
       </c>
+      <c r="S10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1201,6 +1218,9 @@
       <c r="R11" t="s">
         <v>41</v>
       </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1534,6 +1554,9 @@
       <c r="R17" t="s">
         <v>42</v>
       </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1587,6 +1610,9 @@
       <c r="R18" t="s">
         <v>41</v>
       </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1640,6 +1666,9 @@
       <c r="R19" t="s">
         <v>41</v>
       </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1693,6 +1722,9 @@
       <c r="R20" t="s">
         <v>41</v>
       </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1746,6 +1778,9 @@
       <c r="R21" t="s">
         <v>41</v>
       </c>
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1855,6 +1890,9 @@
       <c r="R23" t="s">
         <v>42</v>
       </c>
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1908,6 +1946,9 @@
       <c r="R24" t="s">
         <v>41</v>
       </c>
+      <c r="S24" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1961,6 +2002,9 @@
       <c r="R25" t="s">
         <v>41</v>
       </c>
+      <c r="S25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2070,6 +2114,9 @@
       <c r="R27" t="s">
         <v>42</v>
       </c>
+      <c r="S27" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -2123,6 +2170,9 @@
       <c r="R28" t="s">
         <v>42</v>
       </c>
+      <c r="S28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2176,6 +2226,9 @@
       <c r="R29" t="s">
         <v>42</v>
       </c>
+      <c r="S29" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2229,6 +2282,9 @@
       <c r="R30" t="s">
         <v>42</v>
       </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2282,6 +2338,9 @@
       <c r="R31" t="s">
         <v>41</v>
       </c>
+      <c r="S31" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2335,6 +2394,9 @@
       <c r="R32" t="s">
         <v>41</v>
       </c>
+      <c r="S32" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2388,6 +2450,9 @@
       <c r="R33" t="s">
         <v>42</v>
       </c>
+      <c r="S33" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2494,6 +2559,12 @@
       <c r="Q35" t="s">
         <v>41</v>
       </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -2659,6 +2730,9 @@
       <c r="R38" t="s">
         <v>42</v>
       </c>
+      <c r="S38" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -2824,6 +2898,9 @@
       <c r="R41" t="s">
         <v>42</v>
       </c>
+      <c r="S41" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2933,6 +3010,9 @@
       <c r="R43" t="s">
         <v>42</v>
       </c>
+      <c r="S43" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2986,6 +3066,9 @@
       <c r="R44" t="s">
         <v>42</v>
       </c>
+      <c r="S44" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3039,6 +3122,9 @@
       <c r="R45" t="s">
         <v>41</v>
       </c>
+      <c r="S45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3153,7 +3239,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:T47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE6C1F7-1760-43D4-810A-230E98797EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B59539-1BBC-4A28-81EF-482A9ECAEC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -581,11 +581,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2063,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C27" t="s">
@@ -2231,7 +2231,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
@@ -2847,7 +2847,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C41" t="s">
@@ -2959,7 +2959,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C43" t="s">
@@ -3015,7 +3015,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C44" t="s">
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="C47" t="s">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\well\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B59539-1BBC-4A28-81EF-482A9ECAEC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BAD22-6ED1-44F9-BF58-9D26866D634D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -585,7 +585,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +829,9 @@
       <c r="S4" t="s">
         <v>41</v>
       </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -885,6 +888,9 @@
       <c r="S5" t="s">
         <v>42</v>
       </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -941,6 +947,9 @@
       <c r="S6" t="s">
         <v>41</v>
       </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -997,6 +1006,9 @@
       <c r="S7" t="s">
         <v>41</v>
       </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1109,6 +1121,9 @@
       <c r="S9" t="s">
         <v>41</v>
       </c>
+      <c r="T9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1165,6 +1180,9 @@
       <c r="S10" t="s">
         <v>41</v>
       </c>
+      <c r="T10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1221,6 +1239,9 @@
       <c r="S11" t="s">
         <v>41</v>
       </c>
+      <c r="T11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1502,7 +1523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1557,8 +1578,11 @@
       <c r="S17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1613,8 +1637,11 @@
       <c r="S18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1669,8 +1696,11 @@
       <c r="S19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1725,8 +1755,11 @@
       <c r="S20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1781,8 +1814,11 @@
       <c r="S21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1893,8 +1929,11 @@
       <c r="S23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1949,8 +1988,11 @@
       <c r="S24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2005,8 +2047,11 @@
       <c r="S25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2117,8 +2162,11 @@
       <c r="S27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2173,8 +2221,11 @@
       <c r="S28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2229,8 +2280,11 @@
       <c r="S29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2285,8 +2339,11 @@
       <c r="S30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2341,8 +2398,11 @@
       <c r="S31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2397,8 +2457,11 @@
       <c r="S32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2453,8 +2516,11 @@
       <c r="S33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2510,7 +2576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2565,8 +2631,11 @@
       <c r="S35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2622,7 +2691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2678,7 +2747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2733,8 +2802,11 @@
       <c r="S38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2790,7 +2862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2846,7 +2918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -2901,8 +2973,11 @@
       <c r="S41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2958,7 +3033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -3013,8 +3088,11 @@
       <c r="S43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -3069,8 +3147,11 @@
       <c r="S44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3125,8 +3206,11 @@
       <c r="S45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -3182,7 +3266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3237,9 +3321,12 @@
       <c r="S47" t="s">
         <v>42</v>
       </c>
+      <c r="T47" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
+  <sortState ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BAD22-6ED1-44F9-BF58-9D26866D634D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28721428-63E5-4C0F-AE49-2366A9400794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -773,6 +773,9 @@
       <c r="S3" t="s">
         <v>41</v>
       </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1065,6 +1068,9 @@
       <c r="S8" t="s">
         <v>41</v>
       </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1298,6 +1304,9 @@
       <c r="S12" t="s">
         <v>41</v>
       </c>
+      <c r="T12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1354,6 +1363,9 @@
       <c r="S13" t="s">
         <v>41</v>
       </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1410,6 +1422,9 @@
       <c r="S14" t="s">
         <v>41</v>
       </c>
+      <c r="T14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1466,6 +1481,9 @@
       <c r="S15" t="s">
         <v>48</v>
       </c>
+      <c r="T15" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1522,6 +1540,9 @@
       <c r="S16" t="s">
         <v>41</v>
       </c>
+      <c r="T16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1873,6 +1894,9 @@
       <c r="S22" t="s">
         <v>41</v>
       </c>
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2106,6 +2130,9 @@
       <c r="S26" t="s">
         <v>41</v>
       </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2575,6 +2602,9 @@
       <c r="S34" t="s">
         <v>41</v>
       </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2690,6 +2720,9 @@
       <c r="S36" t="s">
         <v>41</v>
       </c>
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2746,6 +2779,9 @@
       <c r="S37" t="s">
         <v>41</v>
       </c>
+      <c r="T37" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2861,6 +2897,9 @@
       <c r="S39" t="s">
         <v>41</v>
       </c>
+      <c r="T39" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2917,6 +2956,9 @@
       <c r="S40" t="s">
         <v>41</v>
       </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -3032,6 +3074,9 @@
       <c r="S42" t="s">
         <v>41</v>
       </c>
+      <c r="T42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -3265,6 +3310,9 @@
       <c r="S46" t="s">
         <v>41</v>
       </c>
+      <c r="T46" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3326,7 +3374,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:T47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28721428-63E5-4C0F-AE49-2366A9400794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68211DAD-71A1-4BAC-98DC-11BCFE897315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -579,24 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CF2F16-AB51-4356-B13B-717A13C6773A}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -655,8 +655,23 @@
       <c r="T1" s="2">
         <v>45149</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="2">
+        <v>45152</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45153</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45154</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45155</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -702,23 +717,38 @@
       <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -777,7 +807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -836,7 +866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -895,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -954,7 +984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1013,7 +1043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1072,7 +1102,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1131,7 +1161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1190,7 +1220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1367,7 +1397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1426,7 +1456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1485,7 +1515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68211DAD-71A1-4BAC-98DC-11BCFE897315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7219482-C625-47EA-B948-90A83392A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,10 +582,10 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +865,9 @@
       <c r="T4" t="s">
         <v>41</v>
       </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -924,6 +927,9 @@
       <c r="T5" t="s">
         <v>42</v>
       </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -983,6 +989,9 @@
       <c r="T6" t="s">
         <v>41</v>
       </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1042,6 +1051,9 @@
       <c r="T7" t="s">
         <v>41</v>
       </c>
+      <c r="U7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1160,6 +1172,9 @@
       <c r="T9" t="s">
         <v>41</v>
       </c>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1219,6 +1234,9 @@
       <c r="T10" t="s">
         <v>41</v>
       </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1278,6 +1296,9 @@
       <c r="T11" t="s">
         <v>41</v>
       </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1574,7 +1595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1632,8 +1653,11 @@
       <c r="T17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1691,8 +1715,11 @@
       <c r="T18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1750,8 +1777,11 @@
       <c r="T19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1809,8 +1839,11 @@
       <c r="T20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1868,8 +1901,11 @@
       <c r="T21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1986,8 +2022,11 @@
       <c r="T23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2045,8 +2084,11 @@
       <c r="T24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2104,8 +2146,11 @@
       <c r="T25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2164,7 +2209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -2222,8 +2267,11 @@
       <c r="T27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -2281,8 +2329,11 @@
       <c r="T28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2340,8 +2391,11 @@
       <c r="T29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2399,8 +2453,11 @@
       <c r="T30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2458,8 +2515,11 @@
       <c r="T31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2517,8 +2577,11 @@
       <c r="T32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2576,8 +2639,11 @@
       <c r="T33" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2636,7 +2702,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2694,8 +2760,11 @@
       <c r="T35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2754,7 +2823,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2813,7 +2882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2871,8 +2940,11 @@
       <c r="T38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +3003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2990,7 +3062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -3049,7 +3121,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3108,7 +3180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -3284,8 +3356,11 @@
       <c r="T45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -3344,7 +3419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3400,6 +3475,9 @@
         <v>42</v>
       </c>
       <c r="T47" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s">
         <v>42</v>
       </c>
     </row>

--- a/1des/frequencia.xlsx
+++ b/1des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\1des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\senai2023\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7219482-C625-47EA-B948-90A83392A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56858B9B-4B59-4489-9717-C5071166679A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16894AAC-534F-4800-A9CE-F9EFF9F0773F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -582,7 +582,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="U46" sqref="U46"/>
@@ -806,6 +806,9 @@
       <c r="T3" t="s">
         <v>41</v>
       </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1113,6 +1116,9 @@
       <c r="T8" t="s">
         <v>41</v>
       </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1358,6 +1364,9 @@
       <c r="T12" t="s">
         <v>41</v>
       </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1417,6 +1426,9 @@
       <c r="T13" t="s">
         <v>41</v>
       </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1476,6 +1488,9 @@
       <c r="T14" t="s">
         <v>41</v>
       </c>
+      <c r="U14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1535,6 +1550,9 @@
       <c r="T15" t="s">
         <v>41</v>
       </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1594,6 +1612,9 @@
       <c r="T16" t="s">
         <v>41</v>
       </c>
+      <c r="U16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1963,6 +1984,9 @@
       <c r="T22" t="s">
         <v>41</v>
       </c>
+      <c r="U22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2208,6 +2232,9 @@
       <c r="T26" t="s">
         <v>41</v>
       </c>
+      <c r="U26" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2701,6 +2728,9 @@
       <c r="T34" t="s">
         <v>41</v>
       </c>
+      <c r="U34" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2822,6 +2852,9 @@
       <c r="T36" t="s">
         <v>41</v>
       </c>
+      <c r="U36" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2881,6 +2914,9 @@
       <c r="T37" t="s">
         <v>41</v>
       </c>
+      <c r="U37" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3002,6 +3038,9 @@
       <c r="T39" t="s">
         <v>41</v>
       </c>
+      <c r="U39" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3061,6 +3100,9 @@
       <c r="T40" t="s">
         <v>41</v>
       </c>
+      <c r="U40" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -3120,6 +3162,9 @@
       <c r="T41" t="s">
         <v>42</v>
       </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3179,6 +3224,9 @@
       <c r="T42" t="s">
         <v>41</v>
       </c>
+      <c r="U42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -3238,6 +3286,9 @@
       <c r="T43" t="s">
         <v>42</v>
       </c>
+      <c r="U43" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -3297,6 +3348,9 @@
       <c r="T44" t="s">
         <v>42</v>
       </c>
+      <c r="U44" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3418,6 +3472,9 @@
       <c r="T46" t="s">
         <v>41</v>
       </c>
+      <c r="U46" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3482,7 +3539,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T47">
+  <sortState ref="A3:T47">
     <sortCondition ref="A3:A47"/>
   </sortState>
   <mergeCells count="1">
